--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,6 +59,54 @@
   </si>
   <si>
     <t>ValidParentheses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtracking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge cases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anagrams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort, hashMap(String, ArrayList&lt;String&gt;)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore IP Addresses </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtracking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>two pointer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>or DP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -89,12 +137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,11 +165,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -412,7 +469,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -431,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -439,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -447,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -455,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -463,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -471,12 +528,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -24,97 +24,319 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AddBinary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CompareVersionNumbers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Longest Common Prefix </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CountandSay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ImplementstrStr()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LongestCommonPrefix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ValidPalindrome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ValidParentheses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ZigZag Conversion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Letter Combinations of a Phone Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>backtracking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Length of Last Word</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>edge cases</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Anagrams</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sort, hashMap(String, ArrayList&lt;String&gt;)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Restore IP Addresses </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>backtracking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Longest Substring Without Repeating Characters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>two pointer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>or DP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split, case analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial idea wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d DP or use every index as center, expand from center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two pointer, edge cases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate Parentheses </t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>edit distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea, dp formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">idea, dp formula, initialization </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Scramble String </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Valid Parentheses </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case when concatenating ()()(())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string bounds/index DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case, when the words in the given dictionary are not unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need to find better way of doing it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Window Substring </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edge case, when S does not contain T. if set length = Integer.MAX_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.douban.com/group/topic/68473876/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Majority Element </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates from Sorted Array </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascal's Triangle </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascal's Triangle II </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plus One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea: 1 global result, 1 variable to track result for num[i - 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Minimum in Rotated Sorted Array </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search edge case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Paths </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Colors </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea two-pointer program-invariance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[idea]binary divide O(n) time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapping Rain Water </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Consecutive Sequence </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,20 +346,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +394,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,23 +419,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,156 +733,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="4">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B44" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D31" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,182 @@
   </si>
   <si>
     <t>以后做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep global and local optimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Time to Buy and Sell Stock II </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find peak, case  prices[i] &gt;= prices[i + 1], when prices[i] == prices[i + 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail, index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in Rotated Sorted Array </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search, loop condition, and default return value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Minimum in Rotated Sorted Array II </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral Matrix </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition index case(remaining several rows or cols)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral Matrix II </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow Spital Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Search a 2D Matrix </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Matrix Zeroes </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark first row and col first and use first row/col to mark other rows/cols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Peak Element </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates from Sorted Array II </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when to add current arraylist to return list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition: obstacleGrid[i][j] == 1 ? 0 : dp[i - 1][j]+dp[i][j - 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search for a Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base case to return from recursive call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsets II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>same as subsets 1,sort and skip duplicates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index condition bounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Sum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash map don't sort if we are returning indexes, sort if we are to return value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3Sum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3Sum Closest </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Combination Sum II </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump game II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +560,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +585,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -427,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +632,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1226,6 +1411,271 @@
         <v>10</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="8"/>
+      <c r="B57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="8"/>
+      <c r="B60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="8"/>
+      <c r="B61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="8"/>
+      <c r="B62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="8"/>
+      <c r="B63" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="8"/>
+      <c r="B64" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
   <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,50 @@
   </si>
   <si>
     <t>jump game II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index when to update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce time complexity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in place bucket sort , case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case: add the last interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1669,11 +1713,74 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="C70" s="2">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="5">
+        <v>10</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="4">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="4">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
